--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CL02\Desktop\卒業課題\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CL02\Desktop\HONDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABC89F8-C32A-4B6F-9E27-A5406A645496}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3E39D2-720C-43B2-99B4-CD66D4B86E05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{4AAB3D64-535B-4A5F-AC6D-1963FC4A6AF6}"/>
   </bookViews>
@@ -417,7 +417,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -484,9 +484,6 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -497,6 +494,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -815,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11B3167-F707-46B2-83F4-504BE091213A}">
   <dimension ref="A2:AI15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AI14" sqref="AI14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -830,10 +833,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:35" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -952,7 +955,7 @@
       <c r="C4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="25">
         <v>9</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -1057,11 +1060,11 @@
       <c r="C5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="14"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="16"/>
@@ -1100,7 +1103,7 @@
       <c r="C6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="25">
         <v>10</v>
       </c>
       <c r="E6" s="13" t="s">
@@ -1207,7 +1210,7 @@
       <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
@@ -1250,7 +1253,7 @@
       <c r="C8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="25">
         <v>11</v>
       </c>
       <c r="E8" s="13" t="s">
@@ -1355,7 +1358,7 @@
       <c r="C9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="26"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="18"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -1389,7 +1392,7 @@
       <c r="AI9" s="14"/>
     </row>
     <row r="10" spans="1:35" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D10" s="25">
+      <c r="D10" s="24">
         <v>12</v>
       </c>
       <c r="E10" s="13" t="s">
@@ -1487,7 +1490,7 @@
       </c>
     </row>
     <row r="11" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D11" s="25"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="16"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
@@ -1521,7 +1524,7 @@
       <c r="AI11" s="16"/>
     </row>
     <row r="12" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D12" s="25">
+      <c r="D12" s="24">
         <v>1</v>
       </c>
       <c r="E12" s="13" t="s">
@@ -1619,7 +1622,7 @@
       </c>
     </row>
     <row r="13" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D13" s="25"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -1653,7 +1656,7 @@
       <c r="AI13" s="21"/>
     </row>
     <row r="14" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D14" s="25">
+      <c r="D14" s="24">
         <v>2</v>
       </c>
       <c r="E14" s="13" t="s">
@@ -1745,7 +1748,7 @@
       <c r="AI14" s="14"/>
     </row>
     <row r="15" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D15" s="25"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="21"/>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CL02\Desktop\HONDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3E39D2-720C-43B2-99B4-CD66D4B86E05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1218528-1897-4549-B564-20248C143C8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{4AAB3D64-535B-4A5F-AC6D-1963FC4A6AF6}"/>
   </bookViews>
@@ -417,7 +417,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -463,9 +463,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -484,6 +481,9 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -496,10 +496,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -819,7 +816,7 @@
   <dimension ref="A2:AI15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1061,36 +1058,36 @@
         <v>36</v>
       </c>
       <c r="D5" s="25"/>
-      <c r="E5" s="27"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="17"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="16"/>
       <c r="AI5" s="14"/>
     </row>
     <row r="6" spans="1:35" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1211,37 +1208,37 @@
         <v>8</v>
       </c>
       <c r="D7" s="25"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="16"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="18"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="17"/>
     </row>
     <row r="8" spans="1:35" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
@@ -1359,36 +1356,36 @@
         <v>11</v>
       </c>
       <c r="D9" s="25"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="18"/>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="15"/>
       <c r="AI9" s="14"/>
     </row>
     <row r="10" spans="1:35" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1491,37 +1488,37 @@
     </row>
     <row r="11" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D11" s="24"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="16"/>
-      <c r="AI11" s="16"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
     </row>
     <row r="12" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D12" s="24">
@@ -1623,37 +1620,37 @@
     </row>
     <row r="13" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D13" s="24"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="21"/>
-      <c r="AF13" s="21"/>
-      <c r="AG13" s="21"/>
-      <c r="AH13" s="21"/>
-      <c r="AI13" s="21"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
     </row>
     <row r="14" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D14" s="24">
@@ -1749,30 +1746,30 @@
     </row>
     <row r="15" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D15" s="24"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
       <c r="U15" s="13"/>
       <c r="V15" s="13"/>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
       <c r="AC15" s="13"/>
       <c r="AD15" s="13"/>
       <c r="AE15" s="13"/>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CL02\Desktop\HONDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1218528-1897-4549-B564-20248C143C8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4430542-AD36-43BD-8862-6834B7C39C64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{4AAB3D64-535B-4A5F-AC6D-1963FC4A6AF6}"/>
   </bookViews>
@@ -484,6 +484,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -494,9 +497,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -816,7 +816,7 @@
   <dimension ref="A2:AI15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -830,10 +830,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:35" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -952,7 +952,7 @@
       <c r="C4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="26">
         <v>9</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -1057,10 +1057,10 @@
       <c r="C5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="21"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -1100,7 +1100,7 @@
       <c r="C6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="26">
         <v>10</v>
       </c>
       <c r="E6" s="13" t="s">
@@ -1207,7 +1207,7 @@
       <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
@@ -1250,7 +1250,7 @@
       <c r="C8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="26">
         <v>11</v>
       </c>
       <c r="E8" s="13" t="s">
@@ -1355,7 +1355,7 @@
       <c r="C9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="17"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -1389,7 +1389,7 @@
       <c r="AI9" s="14"/>
     </row>
     <row r="10" spans="1:35" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D10" s="24">
+      <c r="D10" s="25">
         <v>12</v>
       </c>
       <c r="E10" s="13" t="s">
@@ -1487,7 +1487,7 @@
       </c>
     </row>
     <row r="11" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D11" s="24"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="15"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
@@ -1521,7 +1521,7 @@
       <c r="AI11" s="15"/>
     </row>
     <row r="12" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D12" s="24">
+      <c r="D12" s="25">
         <v>1</v>
       </c>
       <c r="E12" s="13" t="s">
@@ -1619,7 +1619,7 @@
       </c>
     </row>
     <row r="13" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D13" s="24"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -1653,7 +1653,7 @@
       <c r="AI13" s="20"/>
     </row>
     <row r="14" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D14" s="24">
+      <c r="D14" s="25">
         <v>2</v>
       </c>
       <c r="E14" s="13" t="s">
@@ -1745,7 +1745,7 @@
       <c r="AI14" s="14"/>
     </row>
     <row r="15" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D15" s="24"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="20"/>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CL02\Desktop\HONDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4430542-AD36-43BD-8862-6834B7C39C64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9185DDC4-98CC-4916-B436-C26A272A5638}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{4AAB3D64-535B-4A5F-AC6D-1963FC4A6AF6}"/>
   </bookViews>
@@ -816,7 +816,7 @@
   <dimension ref="A2:AI15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -825,7 +825,7 @@
     <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.25" customWidth="1"/>
     <col min="4" max="4" width="5.625" customWidth="1"/>
-    <col min="5" max="35" width="3.625" customWidth="1"/>
+    <col min="5" max="35" width="3.75" customWidth="1"/>
     <col min="36" max="36" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1066,8 +1066,8 @@
       <c r="J5" s="14"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CL02\Desktop\HONDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9185DDC4-98CC-4916-B436-C26A272A5638}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F6F950-7110-4965-B8DC-5FAA8AB6E74F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{4AAB3D64-535B-4A5F-AC6D-1963FC4A6AF6}"/>
   </bookViews>
@@ -816,7 +816,7 @@
   <dimension ref="A2:AI15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AA5" sqref="AA5"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1068,7 +1068,7 @@
       <c r="L5" s="15"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
-      <c r="O5" s="16"/>
+      <c r="O5" s="14"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="15"/>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CL02\Desktop\HONDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F6F950-7110-4965-B8DC-5FAA8AB6E74F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41022B11-D81D-46A9-930F-F6F1E2D81358}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{4AAB3D64-535B-4A5F-AC6D-1963FC4A6AF6}"/>
   </bookViews>
@@ -816,7 +816,7 @@
   <dimension ref="A2:AI15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1069,12 +1069,12 @@
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
-      <c r="U5" s="16"/>
+      <c r="U5" s="14"/>
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
       <c r="X5" s="16"/>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CL02\Desktop\HONDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41022B11-D81D-46A9-930F-F6F1E2D81358}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FB615F-B4BC-4AF4-9E63-B6329B2777E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{4AAB3D64-535B-4A5F-AC6D-1963FC4A6AF6}"/>
   </bookViews>
@@ -816,7 +816,7 @@
   <dimension ref="A2:AI15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1075,8 +1075,8 @@
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
       <c r="U5" s="14"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
       <c r="X5" s="16"/>
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CL02\Desktop\HONDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FB615F-B4BC-4AF4-9E63-B6329B2777E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A07E84-44CD-48B8-B9A3-6D9727DF1ACE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{4AAB3D64-535B-4A5F-AC6D-1963FC4A6AF6}"/>
   </bookViews>
@@ -816,7 +816,7 @@
   <dimension ref="A2:AI15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1077,11 +1077,11 @@
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
       <c r="W5" s="14"/>
-      <c r="X5" s="16"/>
+      <c r="X5" s="14"/>
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
       <c r="AA5" s="15"/>
-      <c r="AB5" s="16"/>
+      <c r="AB5" s="14"/>
       <c r="AC5" s="16"/>
       <c r="AD5" s="16"/>
       <c r="AE5" s="16"/>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CL02\Desktop\HONDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A07E84-44CD-48B8-B9A3-6D9727DF1ACE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBA35E0-5C98-4AF7-A767-2B93A592F12F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{4AAB3D64-535B-4A5F-AC6D-1963FC4A6AF6}"/>
   </bookViews>
@@ -252,7 +252,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +313,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -417,7 +423,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -497,6 +503,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -816,7 +825,7 @@
   <dimension ref="A2:AI15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+      <selection activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1082,7 +1091,7 @@
       <c r="Z5" s="15"/>
       <c r="AA5" s="15"/>
       <c r="AB5" s="14"/>
-      <c r="AC5" s="16"/>
+      <c r="AC5" s="27"/>
       <c r="AD5" s="16"/>
       <c r="AE5" s="16"/>
       <c r="AF5" s="15"/>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CL02\Desktop\HONDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBA35E0-5C98-4AF7-A767-2B93A592F12F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCF2D03-44A2-4780-86C3-89FF484C3377}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{4AAB3D64-535B-4A5F-AC6D-1963FC4A6AF6}"/>
   </bookViews>
@@ -423,7 +423,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -472,9 +472,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -493,6 +490,9 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -503,9 +503,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -825,7 +822,7 @@
   <dimension ref="A2:AI15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AH5" sqref="AH5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1067,9 +1064,9 @@
         <v>36</v>
       </c>
       <c r="D5" s="26"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -1091,12 +1088,12 @@
       <c r="Z5" s="15"/>
       <c r="AA5" s="15"/>
       <c r="AB5" s="14"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="16"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
       <c r="AF5" s="15"/>
       <c r="AG5" s="15"/>
-      <c r="AH5" s="16"/>
+      <c r="AH5" s="14"/>
       <c r="AI5" s="14"/>
     </row>
     <row r="6" spans="1:35" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1217,37 +1214,37 @@
         <v>8</v>
       </c>
       <c r="D7" s="26"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
       <c r="W7" s="15"/>
       <c r="X7" s="15"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="18"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="17"/>
       <c r="AD7" s="15"/>
       <c r="AE7" s="15"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="17"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
     </row>
     <row r="8" spans="1:35" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
@@ -1365,35 +1362,35 @@
         <v>11</v>
       </c>
       <c r="D9" s="26"/>
-      <c r="E9" s="17"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
       <c r="S9" s="15"/>
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
       <c r="AA9" s="15"/>
       <c r="AB9" s="15"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
-      <c r="AG9" s="17"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
       <c r="AH9" s="15"/>
       <c r="AI9" s="14"/>
     </row>
@@ -1498,29 +1495,29 @@
     <row r="11" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D11" s="25"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
       <c r="AC11" s="15"/>
       <c r="AD11" s="15"/>
       <c r="AE11" s="15"/>
@@ -1635,31 +1632,31 @@
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
       <c r="V13" s="15"/>
       <c r="W13" s="15"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
       <c r="AB13" s="15"/>
       <c r="AC13" s="15"/>
       <c r="AD13" s="15"/>
-      <c r="AE13" s="20"/>
-      <c r="AF13" s="20"/>
-      <c r="AG13" s="20"/>
-      <c r="AH13" s="20"/>
-      <c r="AI13" s="20"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
     </row>
     <row r="14" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D14" s="25">
@@ -1757,18 +1754,18 @@
       <c r="D15" s="25"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
-      <c r="N15" s="20"/>
+      <c r="N15" s="19"/>
       <c r="O15" s="15"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
       <c r="S15" s="15"/>
       <c r="T15" s="15"/>
       <c r="U15" s="13"/>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CL02\Desktop\HONDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCF2D03-44A2-4780-86C3-89FF484C3377}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FEEC34-7ECD-4E96-BC90-31633B381741}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{4AAB3D64-535B-4A5F-AC6D-1963FC4A6AF6}"/>
   </bookViews>
@@ -822,7 +822,7 @@
   <dimension ref="A2:AI15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1214,9 +1214,9 @@
         <v>8</v>
       </c>
       <c r="D7" s="26"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="16"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CL02\Desktop\HONDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FEEC34-7ECD-4E96-BC90-31633B381741}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68ACC039-6F75-4071-A3AA-07A82EE17B05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{4AAB3D64-535B-4A5F-AC6D-1963FC4A6AF6}"/>
   </bookViews>
@@ -822,7 +822,7 @@
   <dimension ref="A2:AI15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1217,19 +1217,19 @@
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="16"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
       <c r="U7" s="16"/>
       <c r="V7" s="16"/>
       <c r="W7" s="15"/>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CL02\Desktop\HONDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68ACC039-6F75-4071-A3AA-07A82EE17B05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1D9C85-AD96-47AB-9994-A2F89B0B6E1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{4AAB3D64-535B-4A5F-AC6D-1963FC4A6AF6}"/>
   </bookViews>
@@ -475,9 +475,6 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -503,6 +500,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11B3167-F707-46B2-83F4-504BE091213A}">
   <dimension ref="A2:AI15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -836,10 +836,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:35" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -958,7 +958,7 @@
       <c r="C4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="25">
         <v>9</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -1063,10 +1063,10 @@
       <c r="C5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -1088,7 +1088,7 @@
       <c r="Z5" s="15"/>
       <c r="AA5" s="15"/>
       <c r="AB5" s="14"/>
-      <c r="AC5" s="22"/>
+      <c r="AC5" s="21"/>
       <c r="AD5" s="14"/>
       <c r="AE5" s="14"/>
       <c r="AF5" s="15"/>
@@ -1106,7 +1106,7 @@
       <c r="C6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="25">
         <v>10</v>
       </c>
       <c r="E6" s="13" t="s">
@@ -1213,7 +1213,7 @@
       <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -1230,21 +1230,21 @@
       <c r="R7" s="15"/>
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
       <c r="W7" s="15"/>
       <c r="X7" s="15"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="17"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="26"/>
       <c r="AD7" s="15"/>
       <c r="AE7" s="15"/>
-      <c r="AF7" s="16"/>
-      <c r="AG7" s="16"/>
-      <c r="AH7" s="16"/>
-      <c r="AI7" s="16"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
     </row>
     <row r="8" spans="1:35" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
@@ -1256,7 +1256,7 @@
       <c r="C8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="25">
         <v>11</v>
       </c>
       <c r="E8" s="13" t="s">
@@ -1361,21 +1361,21 @@
       <c r="C9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="16"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
       <c r="S9" s="15"/>
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
@@ -1395,7 +1395,7 @@
       <c r="AI9" s="14"/>
     </row>
     <row r="10" spans="1:35" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D10" s="25">
+      <c r="D10" s="24">
         <v>12</v>
       </c>
       <c r="E10" s="13" t="s">
@@ -1493,31 +1493,31 @@
       </c>
     </row>
     <row r="11" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D11" s="25"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
       <c r="AC11" s="15"/>
       <c r="AD11" s="15"/>
       <c r="AE11" s="15"/>
@@ -1527,7 +1527,7 @@
       <c r="AI11" s="15"/>
     </row>
     <row r="12" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D12" s="25">
+      <c r="D12" s="24">
         <v>1</v>
       </c>
       <c r="E12" s="13" t="s">
@@ -1625,41 +1625,41 @@
       </c>
     </row>
     <row r="13" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D13" s="25"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
       <c r="V13" s="15"/>
       <c r="W13" s="15"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
       <c r="AB13" s="15"/>
       <c r="AC13" s="15"/>
       <c r="AD13" s="15"/>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="19"/>
-      <c r="AG13" s="19"/>
-      <c r="AH13" s="19"/>
-      <c r="AI13" s="19"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="18"/>
+      <c r="AG13" s="18"/>
+      <c r="AH13" s="18"/>
+      <c r="AI13" s="18"/>
     </row>
     <row r="14" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D14" s="25">
+      <c r="D14" s="24">
         <v>2</v>
       </c>
       <c r="E14" s="13" t="s">
@@ -1751,21 +1751,21 @@
       <c r="AI14" s="14"/>
     </row>
     <row r="15" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D15" s="25"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
-      <c r="N15" s="19"/>
+      <c r="N15" s="18"/>
       <c r="O15" s="15"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
       <c r="S15" s="15"/>
       <c r="T15" s="15"/>
       <c r="U15" s="13"/>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CL02\Desktop\HONDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1D9C85-AD96-47AB-9994-A2F89B0B6E1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407101CE-4ECC-4660-82B7-5803096227A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{4AAB3D64-535B-4A5F-AC6D-1963FC4A6AF6}"/>
   </bookViews>
@@ -190,7 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +248,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="BIZ UDゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="BIZ UDPゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -472,9 +479,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -490,6 +494,9 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -502,7 +509,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -822,7 +829,7 @@
   <dimension ref="A2:AI15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1064,9 +1071,9 @@
         <v>36</v>
       </c>
       <c r="D5" s="25"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -1088,7 +1095,7 @@
       <c r="Z5" s="15"/>
       <c r="AA5" s="15"/>
       <c r="AB5" s="14"/>
-      <c r="AC5" s="21"/>
+      <c r="AC5" s="20"/>
       <c r="AD5" s="14"/>
       <c r="AE5" s="14"/>
       <c r="AF5" s="15"/>
@@ -1238,7 +1245,7 @@
       <c r="Z7" s="14"/>
       <c r="AA7" s="14"/>
       <c r="AB7" s="14"/>
-      <c r="AC7" s="26"/>
+      <c r="AC7" s="21"/>
       <c r="AD7" s="15"/>
       <c r="AE7" s="15"/>
       <c r="AF7" s="14"/>
@@ -1379,18 +1386,18 @@
       <c r="S9" s="15"/>
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
       <c r="AA9" s="15"/>
       <c r="AB9" s="15"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="16"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
       <c r="AH9" s="15"/>
       <c r="AI9" s="14"/>
     </row>
@@ -1495,29 +1502,29 @@
     <row r="11" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D11" s="24"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
       <c r="AC11" s="15"/>
       <c r="AD11" s="15"/>
       <c r="AE11" s="15"/>
@@ -1632,31 +1639,31 @@
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
       <c r="V13" s="15"/>
       <c r="W13" s="15"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
       <c r="AB13" s="15"/>
       <c r="AC13" s="15"/>
       <c r="AD13" s="15"/>
-      <c r="AE13" s="18"/>
-      <c r="AF13" s="18"/>
-      <c r="AG13" s="18"/>
-      <c r="AH13" s="18"/>
-      <c r="AI13" s="18"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17"/>
     </row>
     <row r="14" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D14" s="24">
@@ -1754,18 +1761,18 @@
       <c r="D15" s="24"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
-      <c r="N15" s="18"/>
+      <c r="N15" s="17"/>
       <c r="O15" s="15"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
       <c r="S15" s="15"/>
       <c r="T15" s="15"/>
       <c r="U15" s="13"/>

--- a/ガントチャート.xlsx
+++ b/ガントチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CL02\Desktop\HONDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407101CE-4ECC-4660-82B7-5803096227A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98792C70-DB82-41F5-978E-339648468A8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{4AAB3D64-535B-4A5F-AC6D-1963FC4A6AF6}"/>
   </bookViews>
@@ -497,6 +497,9 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -507,9 +510,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -829,7 +829,7 @@
   <dimension ref="A2:AI15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="AJ19" sqref="AJ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -843,10 +843,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:35" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -965,7 +965,7 @@
       <c r="C4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="26">
         <v>9</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -1070,7 +1070,7 @@
       <c r="C5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="18"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -1113,7 +1113,7 @@
       <c r="C6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="26">
         <v>10</v>
       </c>
       <c r="E6" s="13" t="s">
@@ -1220,7 +1220,7 @@
       <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -1263,7 +1263,7 @@
       <c r="C8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="26">
         <v>11</v>
       </c>
       <c r="E8" s="13" t="s">
@@ -1368,7 +1368,7 @@
       <c r="C9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="14"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -1386,7 +1386,7 @@
       <c r="S9" s="15"/>
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
-      <c r="V9" s="26"/>
+      <c r="V9" s="22"/>
       <c r="W9" s="14"/>
       <c r="X9" s="14"/>
       <c r="Y9" s="14"/>
@@ -1402,7 +1402,7 @@
       <c r="AI9" s="14"/>
     </row>
     <row r="10" spans="1:35" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D10" s="24">
+      <c r="D10" s="25">
         <v>12</v>
       </c>
       <c r="E10" s="13" t="s">
@@ -1500,7 +1500,7 @@
       </c>
     </row>
     <row r="11" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D11" s="24"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="15"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
@@ -1509,22 +1509,22 @@
       <c r="J11" s="14"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
       <c r="AC11" s="15"/>
       <c r="AD11" s="15"/>
       <c r="AE11" s="15"/>
@@ -1534,7 +1534,7 @@
       <c r="AI11" s="15"/>
     </row>
     <row r="12" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D12" s="24">
+      <c r="D12" s="25">
         <v>1</v>
       </c>
       <c r="E12" s="13" t="s">
@@ -1632,7 +1632,7 @@
       </c>
     </row>
     <row r="13" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D13" s="24"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -1666,7 +1666,7 @@
       <c r="AI13" s="17"/>
     </row>
     <row r="14" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D14" s="24">
+      <c r="D14" s="25">
         <v>2</v>
       </c>
       <c r="E14" s="13" t="s">
@@ -1758,7 +1758,7 @@
       <c r="AI14" s="14"/>
     </row>
     <row r="15" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D15" s="24"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="17"/>
